--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -229,9 +229,6 @@
     <t>5t</t>
   </si>
   <si>
-    <t>30min</t>
-  </si>
-  <si>
     <t>Test prototype for export i Ecplise</t>
   </si>
   <si>
@@ -242,6 +239,45 @@
   </si>
   <si>
     <t>1t</t>
+  </si>
+  <si>
+    <t>Review OC1</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>3t 50m</t>
+  </si>
+  <si>
+    <t>Fælles SD og DCD for OC3</t>
+  </si>
+  <si>
+    <t>SD og DCD for OC2</t>
+  </si>
+  <si>
+    <t>DCD for OC2</t>
+  </si>
+  <si>
+    <t>SD for OC2</t>
+  </si>
+  <si>
+    <t>OC4</t>
+  </si>
+  <si>
+    <t>2t 25m</t>
+  </si>
+  <si>
+    <t>1t 10m</t>
+  </si>
+  <si>
+    <t>1t 30m</t>
+  </si>
+  <si>
+    <t>25m</t>
+  </si>
+  <si>
+    <t>SD og DCD for OC4</t>
   </si>
 </sst>
 </file>
@@ -295,10 +331,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +652,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I23" sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,17 +668,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -693,10 +729,10 @@
       <c r="F4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.5625</v>
       </c>
       <c r="I4" t="s">
@@ -711,14 +747,14 @@
       <c r="F5" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0.5625</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.58333333333333337</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -727,16 +763,16 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="6">
+        <v>67</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.60416666666666663</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -745,16 +781,16 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="6">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.64583333333333337</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -767,10 +803,10 @@
       <c r="F8" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.4375</v>
       </c>
       <c r="I8" t="s">
@@ -786,10 +822,10 @@
       <c r="F9" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.4375</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.47916666666666669</v>
       </c>
       <c r="I9" t="s">
@@ -804,14 +840,14 @@
       <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.65277777777777779</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -824,10 +860,10 @@
       <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0.34027777777777773</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.3611111111111111</v>
       </c>
       <c r="I11" t="s">
@@ -842,10 +878,10 @@
       <c r="F12" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0.3611111111111111</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.38194444444444442</v>
       </c>
       <c r="I12" t="s">
@@ -860,10 +896,10 @@
       <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0.40625</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>0.4201388888888889</v>
       </c>
       <c r="I13" t="s">
@@ -878,38 +914,183 @@
       <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0.4236111111111111</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>42804</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>42807</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.33680555555555558</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="I21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="I23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1157,12 +1338,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -17,6 +17,7 @@
     <definedName name="GyldigeRoller">'Gyldige roller'!$A$1:$A$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -278,6 +279,33 @@
   </si>
   <si>
     <t>SD og DCD for OC4</t>
+  </si>
+  <si>
+    <t>Testsuite OC1</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>SD for OC1</t>
+  </si>
+  <si>
+    <t>45min</t>
+  </si>
+  <si>
+    <t>SD fir OC1</t>
+  </si>
+  <si>
+    <t>1t 15m</t>
+  </si>
+  <si>
+    <t>DCD for OC1</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>Testsuite OC2</t>
   </si>
 </sst>
 </file>
@@ -641,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="A1:I23"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +695,7 @@
     <col min="11" max="11" width="31.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>54</v>
       </c>
@@ -680,7 +708,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1092,6 +1120,89 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="I24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="I28" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1145,17 +1256,17 @@
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -1170,12 +1281,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1185,42 +1296,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1243,97 +1354,97 @@
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="14.55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -17,7 +17,6 @@
     <definedName name="GyldigeRoller">'Gyldige roller'!$A$1:$A$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -306,6 +305,15 @@
   </si>
   <si>
     <t>Testsuite OC2</t>
+  </si>
+  <si>
+    <t>Usecase 8 - DD + AD + Testcase</t>
+  </si>
+  <si>
+    <t>Usecase 7 - Formel + AD + Testcase</t>
+  </si>
+  <si>
+    <t>1t 25m</t>
   </si>
 </sst>
 </file>
@@ -677,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1202,6 +1210,43 @@
       </c>
       <c r="I28" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>42808</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I30" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>1t 25m</t>
+  </si>
+  <si>
+    <t>UC7</t>
+  </si>
+  <si>
+    <t>UC8</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,423 +836,475 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>42801</v>
       </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="I8" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="5">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.4375</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.47916666666666669</v>
       </c>
       <c r="I9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G11" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H11" s="5">
         <v>0.65277777777777779</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>42802</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.34027777777777773</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.3611111111111111</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>42802</v>
+      </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G13" s="5">
-        <v>0.40625</v>
+        <v>0.34027777777777773</v>
       </c>
       <c r="H13" s="5">
-        <v>0.4201388888888889</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="5">
-        <v>0.4236111111111111</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="H14" s="5">
-        <v>0.58333333333333337</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G15" s="5">
-        <v>0.58333333333333337</v>
+        <v>0.40625</v>
       </c>
       <c r="H15" s="5">
-        <v>0.61458333333333337</v>
+        <v>0.4201388888888889</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G16" s="5">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H17" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="H16" s="5">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>42804</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.33680555555555558</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="I17" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G18" s="5">
-        <v>0.4375</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="H18" s="5">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>42807</v>
+        <v>42804</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G20" s="5">
         <v>0.33680555555555558</v>
       </c>
       <c r="H20" s="5">
-        <v>0.35416666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G21" s="5">
-        <v>0.35416666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="H21" s="5">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="I21" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G22" s="5">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="5">
-        <v>0.41666666666666669</v>
+        <v>0.54861111111111105</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="E23" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>42807</v>
+      </c>
+      <c r="E24" t="s">
         <v>5</v>
       </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="I23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="E24" t="s">
-        <v>26</v>
-      </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G24" s="5">
-        <v>0.44791666666666669</v>
+        <v>0.33680555555555558</v>
       </c>
       <c r="H24" s="5">
-        <v>0.46875</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
       <c r="E25" t="s">
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G25" s="5">
-        <v>0.46875</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="H25" s="5">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
       <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="E27" t="s">
         <v>5</v>
       </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.55208333333333337</v>
-      </c>
-      <c r="I26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G27" s="5">
-        <v>0.55208333333333337</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="H27" s="5">
-        <v>0.57986111111111105</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
       <c r="E28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G28" s="5">
-        <v>0.57986111111111105</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="H28" s="5">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="I28" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>42808</v>
-      </c>
       <c r="E29" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G29" s="5">
-        <v>0.34375</v>
+        <v>0.46875</v>
       </c>
       <c r="H29" s="5">
-        <v>0.40277777777777773</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>42808</v>
+      </c>
+      <c r="E34" t="s">
         <v>3</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="I34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G35" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H35" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I35" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="I36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.53125</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1312,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E104">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E109">
       <formula1>GyldigeRoller</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>UC8</t>
+  </si>
+  <si>
+    <t>UC3</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1305,6 +1308,29 @@
       </c>
       <c r="G37" s="5">
         <v>0.53125</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="I38" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -323,6 +323,12 @@
   </si>
   <si>
     <t>UC3</t>
+  </si>
+  <si>
+    <t>Review kode til OC1</t>
+  </si>
+  <si>
+    <t>Review kode til OC2</t>
   </si>
 </sst>
 </file>
@@ -686,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,6 +1337,40 @@
       </c>
       <c r="I38" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="I39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -329,6 +329,30 @@
   </si>
   <si>
     <t>Review kode til OC2</t>
+  </si>
+  <si>
+    <t>Review SDD til UC7</t>
+  </si>
+  <si>
+    <t>Design UC7 om</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>Testsuite for OC5</t>
+  </si>
+  <si>
+    <t>Testsuite for OC7 - not possible</t>
+  </si>
+  <si>
+    <t>2t 15m</t>
+  </si>
+  <si>
+    <t>OC5 - Not possible - Design omarbejdes</t>
+  </si>
+  <si>
+    <t>OC7</t>
   </si>
 </sst>
 </file>
@@ -700,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1373,12 +1397,112 @@
         <v>64</v>
       </c>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>42809</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.40625</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="I44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.60069444444444442</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E110">
       <formula1>GyldigeRoller</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>OC7</t>
+  </si>
+  <si>
+    <t>OC5</t>
+  </si>
+  <si>
+    <t>35m</t>
+  </si>
+  <si>
+    <t>50m</t>
   </si>
 </sst>
 </file>
@@ -716,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -724,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1485,6 +1494,9 @@
       <c r="H46" s="5">
         <v>0.59722222222222221</v>
       </c>
+      <c r="I46" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
@@ -1495,6 +1507,43 @@
       </c>
       <c r="G47" s="5">
         <v>0.60069444444444442</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="I47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>42811</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="I49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.38541666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>50m</t>
+  </si>
+  <si>
+    <t>GUI-design</t>
+  </si>
+  <si>
+    <t>OC9 review</t>
+  </si>
+  <si>
+    <t>Brugertest</t>
+  </si>
+  <si>
+    <t>OC15</t>
   </si>
 </sst>
 </file>
@@ -725,7 +737,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -733,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,6 +1556,99 @@
       </c>
       <c r="G50" s="5">
         <v>0.38541666666666669</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>42814</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.34375</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I53" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>42815</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="122">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -374,6 +374,24 @@
   </si>
   <si>
     <t>OC15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC16 </t>
+  </si>
+  <si>
+    <t>4t 45m</t>
+  </si>
+  <si>
+    <t>5t 45m</t>
+  </si>
+  <si>
+    <t>2t 40m</t>
+  </si>
+  <si>
+    <t>2t 10m</t>
+  </si>
+  <si>
+    <t>2t 20m</t>
   </si>
 </sst>
 </file>
@@ -737,7 +755,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1560,6 +1578,9 @@
       <c r="H50" s="5">
         <v>0.58333333333333337</v>
       </c>
+      <c r="I50" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -1577,6 +1598,9 @@
       <c r="H52" s="5">
         <v>0.54166666666666663</v>
       </c>
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
@@ -1608,6 +1632,9 @@
       <c r="H54" s="5">
         <v>0.66666666666666663</v>
       </c>
+      <c r="I54" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
@@ -1625,6 +1652,9 @@
       <c r="H56" s="5">
         <v>0.43055555555555558</v>
       </c>
+      <c r="I56" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
@@ -1649,6 +1679,32 @@
       </c>
       <c r="F58" t="s">
         <v>115</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="I58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I59" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -392,6 +392,15 @@
   </si>
   <si>
     <t>2t 20m</t>
+  </si>
+  <si>
+    <t>OC16 Test suite review</t>
+  </si>
+  <si>
+    <t>OC15 + OC16 rettelser</t>
+  </si>
+  <si>
+    <t>Test af OC4</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -763,9 +772,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
@@ -1705,6 +1714,54 @@
       </c>
       <c r="I59" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="I60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="I61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -401,6 +401,9 @@
   </si>
   <si>
     <t>Test af OC4</t>
+  </si>
+  <si>
+    <t>GUI</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -772,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,6 +1765,20 @@
       </c>
       <c r="I62" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>42848</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering - Laura Poyner.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="127">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>GUI</t>
+  </si>
+  <si>
+    <t>Logic for mellemregniner i alle formler</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,7 +1781,35 @@
         <v>0.34027777777777773</v>
       </c>
       <c r="H64" s="5">
-        <v>0.4375</v>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>42850</v>
+      </c>
+      <c r="F67" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.54166666666666663</v>
       </c>
     </row>
   </sheetData>
